--- a/output/Harps_LotsofGMorhua.xlsx
+++ b/output/Harps_LotsofGMorhua.xlsx
@@ -2302,7 +2302,7 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD32"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2448,9 +2448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG749"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AB29" sqref="AB29"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
